--- a/Word-Dokumente/REST-Modellierung aktualisiert.xlsx
+++ b/Word-Dokumente/REST-Modellierung aktualisiert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\WBA2SS20SelbachWonnerth\Word-Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6708787C-CB1E-4266-926F-4E58AA05E7D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3DD638-2754-417B-BA5E-E69391FB3FEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85DAB095-60A2-4F17-842C-F94F37E949BA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>Methode</t>
   </si>
@@ -93,18 +93,9 @@
     <t>REST-Modellierung</t>
   </si>
   <si>
-    <t>/dj/signup</t>
-  </si>
-  <si>
-    <t>/dj/login</t>
-  </si>
-  <si>
     <t>/dj/{dj-id}</t>
   </si>
   <si>
-    <t>DJ</t>
-  </si>
-  <si>
     <t>API</t>
   </si>
   <si>
@@ -121,13 +112,6 @@
   </si>
   <si>
     <t>bestimmter Song wird auf Wunschliste hinzugefügt</t>
-  </si>
-  <si>
-    <t>Ein neuer DJ
-wird angelegt</t>
-  </si>
-  <si>
-    <t>Ein DJ loggt sich ein</t>
   </si>
   <si>
     <t>Einen DJ mit
@@ -135,34 +119,46 @@
 aufrufen</t>
   </si>
   <si>
-    <t>/dj/songs/{song-id}</t>
-  </si>
-  <si>
-    <t>dj/songs/{song-id}</t>
-  </si>
-  <si>
     <t>Songs die vom Dj zu Auswahl gestellt wurden</t>
   </si>
   <si>
-    <t>/musiksuche/{apisong-id}</t>
-  </si>
-  <si>
     <t>Zeigt bestimmten Song an der API Suche an</t>
   </si>
   <si>
-    <t>Anmerkung</t>
-  </si>
-  <si>
-    <t>Normalerweise müsste zwischen dj und songs noch eine {dj-id}, da wir aber auf einen login verzichten wird diese auch nicht in der Tabelle dargestellt.</t>
-  </si>
-  <si>
     <t>Wunschliste</t>
   </si>
   <si>
-    <t>dj/wunschliste/{song-id}</t>
-  </si>
-  <si>
     <t>bestimmten Song aus Wunschliste anzeigen</t>
+  </si>
+  <si>
+    <t>Ein DJ wird erstellt</t>
+  </si>
+  <si>
+    <t>DJ+F22D8B6:F17B6:F25BB6:F25</t>
+  </si>
+  <si>
+    <t>/musiksuche/{titel}</t>
+  </si>
+  <si>
+    <t>/dj/{dj-id}/songs/{song-id}</t>
+  </si>
+  <si>
+    <t>dj/{dj-id}/songs/{song-id}</t>
+  </si>
+  <si>
+    <t>dj/{dj-id}/wunschliste/{song-id}</t>
+  </si>
+  <si>
+    <t>dj/{dj-id}/songs</t>
+  </si>
+  <si>
+    <t>/dj</t>
+  </si>
+  <si>
+    <t>dj/{dj-id}/wunschliste</t>
+  </si>
+  <si>
+    <t>alle Songs aus Wunschliste anzeigen</t>
   </si>
 </sst>
 </file>
@@ -571,8 +567,8 @@
   </sheetPr>
   <dimension ref="B3:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +589,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -619,13 +615,13 @@
     </row>
     <row r="8" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
@@ -634,37 +630,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -677,7 +656,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -703,13 +682,13 @@
     </row>
     <row r="15" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>5</v>
@@ -720,7 +699,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -746,13 +725,13 @@
     </row>
     <row r="20" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>5</v>
@@ -763,13 +742,13 @@
     </row>
     <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>5</v>
@@ -780,13 +759,13 @@
     </row>
     <row r="22" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>5</v>
@@ -797,13 +776,13 @@
     </row>
     <row r="23" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>5</v>
@@ -813,18 +792,14 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>34</v>
-      </c>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -832,7 +807,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -858,13 +833,13 @@
     </row>
     <row r="30" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>5</v>
@@ -875,13 +850,13 @@
     </row>
     <row r="31" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>5</v>
@@ -890,7 +865,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Word-Dokumente/REST-Modellierung aktualisiert.xlsx
+++ b/Word-Dokumente/REST-Modellierung aktualisiert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\WBA2SS20SelbachWonnerth\Word-Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3DD638-2754-417B-BA5E-E69391FB3FEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B83F8A-9FDB-4311-8FD7-C9DD8CB471BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85DAB095-60A2-4F17-842C-F94F37E949BA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
   <si>
     <t>Methode</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>alle Songs aus Wunschliste anzeigen</t>
+  </si>
+  <si>
+    <t>Alle Songs anzeigen</t>
+  </si>
+  <si>
+    <t>/dj/{dj-id}/songs</t>
   </si>
 </sst>
 </file>
@@ -216,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -244,9 +250,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,8 +570,8 @@
   </sheetPr>
   <dimension ref="B3:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,12 +794,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
+    <row r="24" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
